--- a/Biden.xlsx
+++ b/Biden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E570910-35F1-EE4E-B41E-6D35CEC8718A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D305F450-3DBD-714A-8E3A-F64FACF003E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="1" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
+    <workbookView xWindow="9980" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
   </bookViews>
   <sheets>
     <sheet name="Biden" sheetId="1" r:id="rId1"/>
@@ -121,10 +121,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -151,6 +147,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,14 +470,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43681286-F927-E54C-A395-4AA035D9B992}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C58" sqref="C55:C58"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A42" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="7"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -486,7 +491,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="12">
         <v>44222</v>
       </c>
       <c r="B2" s="1">
@@ -497,7 +502,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="12">
         <v>44245</v>
       </c>
       <c r="B3" s="1">
@@ -508,7 +513,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="12">
         <v>44276</v>
       </c>
       <c r="B4" s="1">
@@ -519,7 +524,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="12">
         <v>44307</v>
       </c>
       <c r="B5" s="1">
@@ -530,7 +535,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="12">
         <v>44309</v>
       </c>
       <c r="B6" s="1">
@@ -541,7 +546,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="12">
         <v>44333</v>
       </c>
       <c r="B7" s="1">
@@ -552,7 +557,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="12">
         <v>44341</v>
       </c>
       <c r="B8" s="1">
@@ -563,7 +568,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="12">
         <v>44369</v>
       </c>
       <c r="B9" s="1">
@@ -574,7 +579,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="12">
         <v>44400</v>
       </c>
       <c r="B10" s="1">
@@ -585,7 +590,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="12">
         <v>44418</v>
       </c>
       <c r="B11" s="1">
@@ -596,7 +601,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="12">
         <v>44426</v>
       </c>
       <c r="B12" s="1">
@@ -607,7 +612,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="12">
         <v>44447</v>
       </c>
       <c r="B13" s="1">
@@ -618,7 +623,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="12">
         <v>44454</v>
       </c>
       <c r="B14" s="1">
@@ -629,7 +634,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="12">
         <v>44462</v>
       </c>
       <c r="B15" s="1">
@@ -640,7 +645,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="12">
         <v>44488</v>
       </c>
       <c r="B16" s="1">
@@ -651,7 +656,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17" s="12">
         <v>44495</v>
       </c>
       <c r="B17" s="1">
@@ -662,7 +667,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="12">
         <v>44517</v>
       </c>
       <c r="B18" s="1">
@@ -673,7 +678,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="12">
         <v>44518</v>
       </c>
       <c r="B19" s="1">
@@ -684,7 +689,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="12">
         <v>44543</v>
       </c>
       <c r="B20" s="1">
@@ -695,7 +700,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="12">
         <v>44544</v>
       </c>
       <c r="B21" s="1">
@@ -706,7 +711,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="12">
         <v>44549</v>
       </c>
       <c r="B22" s="1">
@@ -717,7 +722,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="12">
         <v>44578</v>
       </c>
       <c r="B23" s="1">
@@ -728,7 +733,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="12">
         <v>44580</v>
       </c>
       <c r="B24" s="1">
@@ -739,7 +744,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="12">
         <v>44584</v>
       </c>
       <c r="B25" s="1">
@@ -750,7 +755,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="12">
         <v>44608</v>
       </c>
       <c r="B26" s="1">
@@ -761,7 +766,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27" s="12">
         <v>44612</v>
       </c>
       <c r="B27" s="1">
@@ -772,7 +777,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="12">
         <v>44615</v>
       </c>
       <c r="B28" s="1">
@@ -783,7 +788,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="12">
         <v>44629</v>
       </c>
       <c r="B29" s="1">
@@ -794,7 +799,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30" s="12">
         <v>44634</v>
       </c>
       <c r="B30" s="1">
@@ -805,7 +810,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31" s="12">
         <v>44640</v>
       </c>
       <c r="B31" s="1">
@@ -816,7 +821,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="12">
         <v>44641</v>
       </c>
       <c r="B32" s="1">
@@ -827,7 +832,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33" s="12">
         <v>44650</v>
       </c>
       <c r="B33" s="1">
@@ -838,7 +843,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="A34" s="12">
         <v>44662</v>
       </c>
       <c r="B34" s="1">
@@ -849,7 +854,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="A35" s="12">
         <v>44676</v>
       </c>
       <c r="B35" s="1">
@@ -860,7 +865,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36" s="12">
         <v>44682</v>
       </c>
       <c r="B36" s="1">
@@ -871,7 +876,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="A37" s="12">
         <v>44690</v>
       </c>
       <c r="B37" s="1">
@@ -882,7 +887,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="A38" s="12">
         <v>44704</v>
       </c>
       <c r="B38" s="1">
@@ -893,7 +898,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="A39" s="12">
         <v>44718</v>
       </c>
       <c r="B39" s="1">
@@ -904,7 +909,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="A40" s="12">
         <v>44722</v>
       </c>
       <c r="B40" s="1">
@@ -915,7 +920,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="A41" s="12">
         <v>44732</v>
       </c>
       <c r="B41" s="1">
@@ -926,7 +931,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="A42" s="12">
         <v>44741</v>
       </c>
       <c r="B42" s="1">
@@ -937,7 +942,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="A43" s="12">
         <v>44747</v>
       </c>
       <c r="B43" s="1">
@@ -948,7 +953,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="A44" s="12">
         <v>44752</v>
       </c>
       <c r="B44" s="1">
@@ -959,7 +964,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="A45" s="12">
         <v>44755</v>
       </c>
       <c r="B45" s="1">
@@ -970,7 +975,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="A46" s="12">
         <v>44756</v>
       </c>
       <c r="B46" s="1">
@@ -981,7 +986,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="A47" s="12">
         <v>44757</v>
       </c>
       <c r="B47" s="1">
@@ -992,7 +997,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="A48" s="12">
         <v>44761</v>
       </c>
       <c r="B48" s="1">
@@ -1003,7 +1008,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="A49" s="12">
         <v>44770</v>
       </c>
       <c r="B49" s="1">
@@ -1014,7 +1019,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="A50" s="12">
         <v>44779</v>
       </c>
       <c r="B50" s="1">
@@ -1025,7 +1030,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="A51" s="12">
         <v>44782</v>
       </c>
       <c r="B51" s="1">
@@ -1036,7 +1041,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="A52" s="12">
         <v>44788</v>
       </c>
       <c r="B52" s="1">
@@ -1047,7 +1052,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="A53" s="12">
         <v>44795</v>
       </c>
       <c r="B53" s="1">
@@ -1058,7 +1063,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+      <c r="A54" s="12">
         <v>44798</v>
       </c>
       <c r="B54" s="1">
@@ -1069,7 +1074,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+      <c r="A55" s="12">
         <v>44816</v>
       </c>
       <c r="B55" s="1">
@@ -1080,7 +1085,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+      <c r="A56" s="12">
         <v>44818</v>
       </c>
       <c r="B56" s="1">
@@ -1091,7 +1096,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+      <c r="A57" s="12">
         <v>44823</v>
       </c>
       <c r="B57" s="1">
@@ -1102,7 +1107,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+      <c r="A58" s="6">
         <v>44829</v>
       </c>
       <c r="B58" s="1">
@@ -1119,22 +1124,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB862CE-D7C4-494E-8917-822D530E68D9}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
@@ -1142,7 +1147,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>44222</v>
       </c>
       <c r="B2" s="1">
@@ -1153,7 +1158,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>44245</v>
       </c>
       <c r="B3" s="1">
@@ -1164,7 +1169,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>44276</v>
       </c>
       <c r="B4" s="1">
@@ -1175,7 +1180,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>44309</v>
       </c>
       <c r="B5" s="1">
@@ -1186,7 +1191,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>44341</v>
       </c>
       <c r="B6" s="1">
@@ -1197,7 +1202,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>44369</v>
       </c>
       <c r="B7" s="1">
@@ -1208,7 +1213,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>44400</v>
       </c>
       <c r="B8" s="1">
@@ -1219,7 +1224,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>44426</v>
       </c>
       <c r="B9" s="1">
@@ -1230,7 +1235,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>44462</v>
       </c>
       <c r="B10" s="1">
@@ -1241,7 +1246,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>44495</v>
       </c>
       <c r="B11" s="1">
@@ -1252,7 +1257,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>44518</v>
       </c>
       <c r="B12" s="1">
@@ -1263,7 +1268,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>44549</v>
       </c>
       <c r="B13" s="1">
@@ -1274,7 +1279,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <v>44584</v>
       </c>
       <c r="B14" s="1">
@@ -1285,7 +1290,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>44615</v>
       </c>
       <c r="B15" s="1">
@@ -1296,7 +1301,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>44650</v>
       </c>
       <c r="B16" s="1">
@@ -1307,7 +1312,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>44676</v>
       </c>
       <c r="B17" s="1">
@@ -1318,7 +1323,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>44704</v>
       </c>
       <c r="B18" s="1">
@@ -1329,7 +1334,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>44741</v>
       </c>
       <c r="B19" s="1">
@@ -1340,7 +1345,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>44770</v>
       </c>
       <c r="B20" s="1">
@@ -1351,7 +1356,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>44798</v>
       </c>
       <c r="B21" s="1">
@@ -1362,7 +1367,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
+      <c r="A22" s="9">
         <v>44829</v>
       </c>
       <c r="B22" s="1">
@@ -1373,7 +1378,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>44222</v>
       </c>
       <c r="B23" s="1">
@@ -1384,7 +1389,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>44245</v>
       </c>
       <c r="B24" s="1">
@@ -1395,7 +1400,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>44276</v>
       </c>
       <c r="B25" s="1">
@@ -1406,7 +1411,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>44309</v>
       </c>
       <c r="B26" s="1">
@@ -1417,7 +1422,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>44341</v>
       </c>
       <c r="B27" s="1">
@@ -1428,7 +1433,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>44369</v>
       </c>
       <c r="B28" s="1">
@@ -1439,7 +1444,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>44400</v>
       </c>
       <c r="B29" s="1">
@@ -1450,7 +1455,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>44426</v>
       </c>
       <c r="B30" s="1">
@@ -1461,7 +1466,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+      <c r="A31" s="9">
         <v>44462</v>
       </c>
       <c r="B31" s="1">
@@ -1472,7 +1477,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+      <c r="A32" s="9">
         <v>44495</v>
       </c>
       <c r="B32" s="1">
@@ -1483,7 +1488,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="5">
         <v>44518</v>
       </c>
       <c r="B33" s="1">
@@ -1494,7 +1499,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
+      <c r="A34" s="9">
         <v>44549</v>
       </c>
       <c r="B34" s="1">
@@ -1505,7 +1510,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+      <c r="A35" s="9">
         <v>44584</v>
       </c>
       <c r="B35" s="1">
@@ -1516,7 +1521,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="A36" s="5">
         <v>44615</v>
       </c>
       <c r="B36" s="1">
@@ -1527,7 +1532,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="5">
         <v>44650</v>
       </c>
       <c r="B37" s="1">
@@ -1538,7 +1543,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="A38" s="5">
         <v>44676</v>
       </c>
       <c r="B38" s="1">
@@ -1549,7 +1554,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="5">
         <v>44704</v>
       </c>
       <c r="B39" s="1">
@@ -1560,7 +1565,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="A40" s="5">
         <v>44741</v>
       </c>
       <c r="B40" s="1">
@@ -1571,7 +1576,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="A41" s="5">
         <v>44770</v>
       </c>
       <c r="B41" s="1">
@@ -1582,7 +1587,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="5">
         <v>44798</v>
       </c>
       <c r="B42" s="1">
@@ -1593,7 +1598,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="11">
+      <c r="A43" s="9">
         <v>44829</v>
       </c>
       <c r="B43" s="1">
@@ -1601,6 +1606,16 @@
       </c>
       <c r="C43" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="9">
+        <v>44833</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="9">
+        <v>44833</v>
       </c>
     </row>
   </sheetData>
@@ -1618,470 +1633,470 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="4"/>
+    <col min="1" max="4" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>44223</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>60</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>44245</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>47</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>44276</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>54</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>44298</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>63</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>44341</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>66</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>44363</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>49</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>44406</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>45</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>44418</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>55</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>44455</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>49</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>44479</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>38</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>44510</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>38</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>44518</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>43</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>44538</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>33</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>44588</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>34</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>44614</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>33</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>44650</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>36</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>44662</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>21</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>44676</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>33</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>44682</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>45</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>44690</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>29</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>44697</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>27</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>44718</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>24</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>44722</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>43</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>44732</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>25</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>44741</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>32</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>44747</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>28</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>44752</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>43</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>44755</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>44</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>44756</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <v>23</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>44770</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>33</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>44779</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>50</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>44782</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>47</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>53</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>44788</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>29</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>63</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>44795</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>38</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>58</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>44798</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>40</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>48</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>44816</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2">
         <v>46</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="2">
         <v>53</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>44818</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>40</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
         <v>53</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>44823</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <v>45</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="2">
         <v>55</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>44829</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2">
         <v>35</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="2">
         <v>49</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2100,15 +2115,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="9"/>
-    <col min="2" max="2" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
@@ -2116,10 +2131,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>44223</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>60</v>
       </c>
       <c r="C2" t="s">
@@ -2127,10 +2142,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>44245</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>47</v>
       </c>
       <c r="C3" t="s">
@@ -2138,10 +2153,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>44276</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>54</v>
       </c>
       <c r="C4" t="s">
@@ -2149,10 +2164,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>44298</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>63</v>
       </c>
       <c r="C5" t="s">
@@ -2160,10 +2175,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>44341</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>66</v>
       </c>
       <c r="C6" t="s">
@@ -2171,10 +2186,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>44363</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>49</v>
       </c>
       <c r="C7" t="s">
@@ -2182,10 +2197,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>44406</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>45</v>
       </c>
       <c r="C8" t="s">
@@ -2193,10 +2208,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>44418</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>55</v>
       </c>
       <c r="C9" t="s">
@@ -2204,10 +2219,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>44455</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>49</v>
       </c>
       <c r="C10" t="s">
@@ -2215,10 +2230,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>44479</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>38</v>
       </c>
       <c r="C11" t="s">
@@ -2226,10 +2241,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>44518</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>40.5</v>
       </c>
       <c r="C12" t="s">
@@ -2237,10 +2252,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>44538</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>33</v>
       </c>
       <c r="C13" t="s">
@@ -2248,10 +2263,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>44588</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>34</v>
       </c>
       <c r="C14" t="s">
@@ -2259,10 +2274,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>44614</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>33</v>
       </c>
       <c r="C15" t="s">
@@ -2270,10 +2285,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>44650</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>36</v>
       </c>
       <c r="C16" t="s">
@@ -2281,10 +2296,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>44676</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>27</v>
       </c>
       <c r="C17" t="s">
@@ -2292,10 +2307,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>44697</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>33.700000000000003</v>
       </c>
       <c r="C18" t="s">
@@ -2303,10 +2318,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>44741</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>31</v>
       </c>
       <c r="C19" t="s">
@@ -2314,10 +2329,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>44770</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>34.200000000000003</v>
       </c>
       <c r="C20" t="s">
@@ -2325,10 +2340,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>44798</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>40.799999999999997</v>
       </c>
       <c r="C21" t="s">
@@ -2336,10 +2351,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <v>44829</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>41.5</v>
       </c>
       <c r="C22" t="s">
@@ -2347,10 +2362,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>44223</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>23</v>
       </c>
       <c r="C23" t="s">
@@ -2358,10 +2373,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>44245</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>32</v>
       </c>
       <c r="C24" t="s">
@@ -2369,10 +2384,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>44276</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>29</v>
       </c>
       <c r="C25" t="s">
@@ -2380,10 +2395,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>44298</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>31</v>
       </c>
       <c r="C26" t="s">
@@ -2391,10 +2406,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>44341</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>26</v>
       </c>
       <c r="C27" t="s">
@@ -2402,10 +2417,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>44363</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>37</v>
       </c>
       <c r="C28" t="s">
@@ -2413,10 +2428,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>44406</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>37</v>
       </c>
       <c r="C29" t="s">
@@ -2424,10 +2439,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>44418</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <v>43</v>
       </c>
       <c r="C30" t="s">
@@ -2435,10 +2450,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>44455</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>39</v>
       </c>
       <c r="C31" t="s">
@@ -2446,10 +2461,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="A32" s="5">
         <v>44479</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>49</v>
       </c>
       <c r="C32" t="s">
@@ -2457,10 +2472,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="5">
         <v>44518</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>53</v>
       </c>
       <c r="C33" t="s">
@@ -2468,10 +2483,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="A34" s="5">
         <v>44538</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>49</v>
       </c>
       <c r="C34" t="s">
@@ -2479,10 +2494,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="5">
         <v>44588</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>56</v>
       </c>
       <c r="C35" t="s">
@@ -2490,10 +2505,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="A36" s="5">
         <v>44614</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>54</v>
       </c>
       <c r="C36" t="s">
@@ -2501,10 +2516,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="5">
         <v>44650</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2">
         <v>54</v>
       </c>
       <c r="C37" t="s">
@@ -2512,10 +2527,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
+      <c r="A38" s="6">
         <v>44676</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>53.5</v>
       </c>
       <c r="C38" t="s">
@@ -2523,10 +2538,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
+      <c r="A39" s="6">
         <v>44697</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <v>58</v>
       </c>
       <c r="C39" t="s">
@@ -2534,10 +2549,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
+      <c r="A40" s="6">
         <v>44741</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2">
         <v>55</v>
       </c>
       <c r="C40" t="s">
@@ -2545,10 +2560,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
+      <c r="A41" s="6">
         <v>44770</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="2">
         <v>58.4</v>
       </c>
       <c r="C41" t="s">
@@ -2556,10 +2571,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
+      <c r="A42" s="6">
         <v>44798</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="2">
         <v>53.6</v>
       </c>
       <c r="C42" t="s">
@@ -2567,10 +2582,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
+      <c r="A43" s="6">
         <v>44829</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="2">
         <v>52.5</v>
       </c>
       <c r="C43" t="s">

--- a/Biden.xlsx
+++ b/Biden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D305F450-3DBD-714A-8E3A-F64FACF003E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873BE1ED-52BF-494B-8B6E-C1BD8B873377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
+    <workbookView xWindow="3960" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="3" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
   </bookViews>
   <sheets>
     <sheet name="Biden" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43681286-F927-E54C-A395-4AA035D9B992}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A42" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1117,6 +1117,28 @@
         <v>55</v>
       </c>
     </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>44839</v>
+      </c>
+      <c r="B59" s="1">
+        <v>44</v>
+      </c>
+      <c r="C59" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>44841</v>
+      </c>
+      <c r="B60" s="1">
+        <v>41</v>
+      </c>
+      <c r="C60" s="1">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1124,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB862CE-D7C4-494E-8917-822D530E68D9}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1378,22 +1400,22 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>44222</v>
+      <c r="A23" s="9">
+        <v>44841</v>
       </c>
       <c r="B23" s="1">
-        <v>33</v>
+        <v>42.5</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>44245</v>
+        <v>44222</v>
       </c>
       <c r="B24" s="1">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -1401,10 +1423,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>44276</v>
+        <v>44245</v>
       </c>
       <c r="B25" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -1412,10 +1434,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>44309</v>
+        <v>44276</v>
       </c>
       <c r="B26" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1423,10 +1445,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>44341</v>
+        <v>44309</v>
       </c>
       <c r="B27" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1434,10 +1456,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>44369</v>
+        <v>44341</v>
       </c>
       <c r="B28" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -1445,7 +1467,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>44400</v>
+        <v>44369</v>
       </c>
       <c r="B29" s="1">
         <v>43</v>
@@ -1456,21 +1478,21 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
+        <v>44400</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>44426</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1">
         <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
-        <v>44462</v>
-      </c>
-      <c r="B31" s="1">
-        <v>47.7</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -1478,32 +1500,32 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
+        <v>44462</v>
+      </c>
+      <c r="B32" s="1">
+        <v>47.7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
         <v>44495</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="1">
         <v>52.5</v>
       </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>44518</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
-        <v>44549</v>
-      </c>
-      <c r="B34" s="1">
-        <v>55.3</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -1511,18 +1533,18 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
+        <v>44549</v>
+      </c>
+      <c r="B35" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
         <v>44584</v>
-      </c>
-      <c r="B35" s="1">
-        <v>53.2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>44615</v>
       </c>
       <c r="B36" s="1">
         <v>53.2</v>
@@ -1533,10 +1555,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>44650</v>
+        <v>44615</v>
       </c>
       <c r="B37" s="1">
-        <v>53.8</v>
+        <v>53.2</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -1544,10 +1566,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>44676</v>
+        <v>44650</v>
       </c>
       <c r="B38" s="1">
-        <v>51.8</v>
+        <v>53.8</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -1555,10 +1577,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>44704</v>
+        <v>44676</v>
       </c>
       <c r="B39" s="1">
-        <v>54.7</v>
+        <v>51.8</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1566,10 +1588,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>44741</v>
+        <v>44704</v>
       </c>
       <c r="B40" s="1">
-        <v>56</v>
+        <v>54.7</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1577,10 +1599,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>44770</v>
+        <v>44741</v>
       </c>
       <c r="B41" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -1588,21 +1610,21 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
+        <v>44770</v>
+      </c>
+      <c r="B42" s="1">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>44798</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B43" s="1">
         <v>54.6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="9">
-        <v>44829</v>
-      </c>
-      <c r="B43" s="1">
-        <v>54.5</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -1610,13 +1632,28 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
-        <v>44833</v>
+        <v>44829</v>
+      </c>
+      <c r="B44" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
-        <v>44833</v>
-      </c>
+        <v>44841</v>
+      </c>
+      <c r="B45" s="1">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1627,7 +1664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD06F601-20B1-9C47-AE8D-2FB0DE090AFB}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C13" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
@@ -2107,10 +2144,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099A9BFF-E3A6-4844-BB76-EED16C412818}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2362,22 +2399,22 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
-        <v>44223</v>
+      <c r="A23" s="6">
+        <v>44841</v>
       </c>
       <c r="B23" s="2">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>44245</v>
+        <v>44223</v>
       </c>
       <c r="B24" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -2385,10 +2422,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>44276</v>
+        <v>44245</v>
       </c>
       <c r="B25" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -2396,10 +2433,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>44298</v>
+        <v>44276</v>
       </c>
       <c r="B26" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -2407,10 +2444,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>44341</v>
+        <v>44298</v>
       </c>
       <c r="B27" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -2418,10 +2455,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>44363</v>
+        <v>44341</v>
       </c>
       <c r="B28" s="2">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -2429,7 +2466,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>44406</v>
+        <v>44363</v>
       </c>
       <c r="B29" s="2">
         <v>37</v>
@@ -2440,10 +2477,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>44418</v>
+        <v>44406</v>
       </c>
       <c r="B30" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -2451,10 +2488,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>44455</v>
+        <v>44418</v>
       </c>
       <c r="B31" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -2462,10 +2499,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>44479</v>
+        <v>44455</v>
       </c>
       <c r="B32" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -2473,10 +2510,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>44518</v>
+        <v>44479</v>
       </c>
       <c r="B33" s="2">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -2484,10 +2521,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>44538</v>
+        <v>44518</v>
       </c>
       <c r="B34" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -2495,10 +2532,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>44588</v>
+        <v>44538</v>
       </c>
       <c r="B35" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -2506,10 +2543,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>44614</v>
+        <v>44588</v>
       </c>
       <c r="B36" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -2517,7 +2554,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>44650</v>
+        <v>44614</v>
       </c>
       <c r="B37" s="2">
         <v>54</v>
@@ -2527,11 +2564,11 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
-        <v>44676</v>
+      <c r="A38" s="5">
+        <v>44650</v>
       </c>
       <c r="B38" s="2">
-        <v>53.5</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -2539,10 +2576,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>44697</v>
+        <v>44676</v>
       </c>
       <c r="B39" s="2">
-        <v>58</v>
+        <v>53.5</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -2550,10 +2587,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>44741</v>
+        <v>44697</v>
       </c>
       <c r="B40" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -2561,10 +2598,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>44770</v>
+        <v>44741</v>
       </c>
       <c r="B41" s="2">
-        <v>58.4</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -2572,10 +2609,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>44798</v>
+        <v>44770</v>
       </c>
       <c r="B42" s="2">
-        <v>53.6</v>
+        <v>58.4</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -2583,12 +2620,34 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
+        <v>44798</v>
+      </c>
+      <c r="B43" s="2">
+        <v>53.6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
         <v>44829</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B44" s="2">
         <v>52.5</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>44841</v>
+      </c>
+      <c r="B45" s="8">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Biden.xlsx
+++ b/Biden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873BE1ED-52BF-494B-8B6E-C1BD8B873377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2923B3F2-E1AF-4B4D-B37C-DE16292B3FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="3" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
+    <workbookView xWindow="3960" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="1" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
   </bookViews>
   <sheets>
     <sheet name="Biden" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Results</t>
+  </si>
+  <si>
+    <t>TIPP</t>
+  </si>
+  <si>
+    <t>FOX</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43681286-F927-E54C-A395-4AA035D9B992}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:C60"/>
+      <selection activeCell="B61" sqref="B60:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,6 +1145,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>44846</v>
+      </c>
+      <c r="B61" s="1">
+        <v>46</v>
+      </c>
+      <c r="C61" s="1">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1146,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB862CE-D7C4-494E-8917-822D530E68D9}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1411,22 +1428,22 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>44222</v>
+      <c r="A24" s="9">
+        <v>44846</v>
       </c>
       <c r="B24" s="1">
-        <v>33</v>
+        <v>43.5</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>44245</v>
+        <v>44222</v>
       </c>
       <c r="B25" s="1">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -1434,10 +1451,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>44276</v>
+        <v>44245</v>
       </c>
       <c r="B26" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1445,10 +1462,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>44309</v>
+        <v>44276</v>
       </c>
       <c r="B27" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1456,10 +1473,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>44341</v>
+        <v>44309</v>
       </c>
       <c r="B28" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -1467,10 +1484,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>44369</v>
+        <v>44341</v>
       </c>
       <c r="B29" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1478,7 +1495,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>44400</v>
+        <v>44369</v>
       </c>
       <c r="B30" s="1">
         <v>43</v>
@@ -1489,21 +1506,21 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
+        <v>44400</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>44426</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="1">
         <v>46</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
-        <v>44462</v>
-      </c>
-      <c r="B32" s="1">
-        <v>47.7</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -1511,32 +1528,32 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
+        <v>44462</v>
+      </c>
+      <c r="B33" s="1">
+        <v>47.7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
         <v>44495</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>52.5</v>
       </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>44518</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B35" s="1">
         <v>53</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
-        <v>44549</v>
-      </c>
-      <c r="B35" s="1">
-        <v>55.3</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1544,18 +1561,18 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
+        <v>44549</v>
+      </c>
+      <c r="B36" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="9">
         <v>44584</v>
-      </c>
-      <c r="B36" s="1">
-        <v>53.2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <v>44615</v>
       </c>
       <c r="B37" s="1">
         <v>53.2</v>
@@ -1566,10 +1583,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>44650</v>
+        <v>44615</v>
       </c>
       <c r="B38" s="1">
-        <v>53.8</v>
+        <v>53.2</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -1577,10 +1594,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>44676</v>
+        <v>44650</v>
       </c>
       <c r="B39" s="1">
-        <v>51.8</v>
+        <v>53.8</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1588,10 +1605,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>44704</v>
+        <v>44676</v>
       </c>
       <c r="B40" s="1">
-        <v>54.7</v>
+        <v>51.8</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1599,10 +1616,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>44741</v>
+        <v>44704</v>
       </c>
       <c r="B41" s="1">
-        <v>56</v>
+        <v>54.7</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -1610,10 +1627,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>44770</v>
+        <v>44741</v>
       </c>
       <c r="B42" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -1621,21 +1638,21 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
+        <v>44770</v>
+      </c>
+      <c r="B43" s="1">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
         <v>44798</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B44" s="1">
         <v>54.6</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
-        <v>44829</v>
-      </c>
-      <c r="B44" s="1">
-        <v>54.5</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1643,17 +1660,36 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
+        <v>44829</v>
+      </c>
+      <c r="B45" s="1">
+        <v>54.5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="9">
         <v>44841</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B46" s="1">
         <v>52</v>
       </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
+        <v>44846</v>
+      </c>
+      <c r="B47" s="1">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1662,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD06F601-20B1-9C47-AE8D-2FB0DE090AFB}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+    <sheetView topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C42" sqref="C41:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2137,6 +2173,34 @@
         <v>9</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>44841</v>
+      </c>
+      <c r="B41" s="2">
+        <v>48</v>
+      </c>
+      <c r="C41" s="2">
+        <v>48</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>44846</v>
+      </c>
+      <c r="B42" s="2">
+        <v>54</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2144,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099A9BFF-E3A6-4844-BB76-EED16C412818}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2403,29 +2467,29 @@
         <v>44841</v>
       </c>
       <c r="B23" s="2">
-        <v>42</v>
+        <v>41.5</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
-        <v>44223</v>
+      <c r="A24" s="6">
+        <v>44846</v>
       </c>
       <c r="B24" s="2">
-        <v>23</v>
+        <v>43.5</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>44245</v>
+        <v>44223</v>
       </c>
       <c r="B25" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -2433,10 +2497,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>44276</v>
+        <v>44245</v>
       </c>
       <c r="B26" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -2444,10 +2508,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>44298</v>
+        <v>44276</v>
       </c>
       <c r="B27" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -2455,10 +2519,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>44341</v>
+        <v>44298</v>
       </c>
       <c r="B28" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -2466,10 +2530,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>44363</v>
+        <v>44341</v>
       </c>
       <c r="B29" s="2">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -2477,7 +2541,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>44406</v>
+        <v>44363</v>
       </c>
       <c r="B30" s="2">
         <v>37</v>
@@ -2488,10 +2552,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>44418</v>
+        <v>44406</v>
       </c>
       <c r="B31" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -2499,10 +2563,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>44455</v>
+        <v>44418</v>
       </c>
       <c r="B32" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -2510,10 +2574,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>44479</v>
+        <v>44455</v>
       </c>
       <c r="B33" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -2521,10 +2585,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>44518</v>
+        <v>44479</v>
       </c>
       <c r="B34" s="2">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -2532,10 +2596,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>44538</v>
+        <v>44518</v>
       </c>
       <c r="B35" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -2543,10 +2607,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>44588</v>
+        <v>44538</v>
       </c>
       <c r="B36" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -2554,10 +2618,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>44614</v>
+        <v>44588</v>
       </c>
       <c r="B37" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -2565,7 +2629,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>44650</v>
+        <v>44614</v>
       </c>
       <c r="B38" s="2">
         <v>54</v>
@@ -2575,11 +2639,11 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
-        <v>44676</v>
+      <c r="A39" s="5">
+        <v>44650</v>
       </c>
       <c r="B39" s="2">
-        <v>53.5</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -2587,10 +2651,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>44697</v>
+        <v>44676</v>
       </c>
       <c r="B40" s="2">
-        <v>58</v>
+        <v>53.5</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -2598,10 +2662,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>44741</v>
+        <v>44697</v>
       </c>
       <c r="B41" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -2609,10 +2673,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>44770</v>
+        <v>44741</v>
       </c>
       <c r="B42" s="2">
-        <v>58.4</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -2620,10 +2684,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>44798</v>
+        <v>44770</v>
       </c>
       <c r="B43" s="2">
-        <v>53.6</v>
+        <v>58.4</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -2631,10 +2695,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>44829</v>
+        <v>44798</v>
       </c>
       <c r="B44" s="2">
-        <v>52.5</v>
+        <v>53.6</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -2642,12 +2706,34 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
+        <v>44829</v>
+      </c>
+      <c r="B45" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
         <v>44841</v>
       </c>
-      <c r="B45" s="8">
-        <v>52</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" s="8">
+        <v>48.5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>44846</v>
+      </c>
+      <c r="B47" s="8">
+        <v>46.5</v>
+      </c>
+      <c r="C47" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Biden.xlsx
+++ b/Biden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2923B3F2-E1AF-4B4D-B37C-DE16292B3FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE30B73-7745-FF4D-965A-BFB47F71EB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="1" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
+    <workbookView xWindow="7100" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="1" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
   </bookViews>
   <sheets>
     <sheet name="Biden" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43681286-F927-E54C-A395-4AA035D9B992}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B61" sqref="B60:B61"/>
+      <selection activeCell="B61" sqref="B61:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1156,6 +1156,17 @@
         <v>53</v>
       </c>
     </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>44851</v>
+      </c>
+      <c r="B62" s="1">
+        <v>39</v>
+      </c>
+      <c r="C62" s="1">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1163,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB862CE-D7C4-494E-8917-822D530E68D9}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1439,22 +1450,22 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>44222</v>
+      <c r="A25" s="9">
+        <v>44851</v>
       </c>
       <c r="B25" s="1">
-        <v>33</v>
+        <v>42.5</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>44245</v>
+        <v>44222</v>
       </c>
       <c r="B26" s="1">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1462,10 +1473,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>44276</v>
+        <v>44245</v>
       </c>
       <c r="B27" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1473,10 +1484,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>44309</v>
+        <v>44276</v>
       </c>
       <c r="B28" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -1484,10 +1495,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>44341</v>
+        <v>44309</v>
       </c>
       <c r="B29" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1495,10 +1506,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>44369</v>
+        <v>44341</v>
       </c>
       <c r="B30" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -1506,7 +1517,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>44400</v>
+        <v>44369</v>
       </c>
       <c r="B31" s="1">
         <v>43</v>
@@ -1517,21 +1528,21 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
+        <v>44400</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>44426</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="1">
         <v>46</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
-        <v>44462</v>
-      </c>
-      <c r="B33" s="1">
-        <v>47.7</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -1539,32 +1550,32 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
+        <v>44462</v>
+      </c>
+      <c r="B34" s="1">
+        <v>47.7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="9">
         <v>44495</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B35" s="1">
         <v>52.5</v>
       </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
         <v>44518</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36" s="1">
         <v>53</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
-        <v>44549</v>
-      </c>
-      <c r="B36" s="1">
-        <v>55.3</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1572,18 +1583,18 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
+        <v>44549</v>
+      </c>
+      <c r="B37" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
         <v>44584</v>
-      </c>
-      <c r="B37" s="1">
-        <v>53.2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>44615</v>
       </c>
       <c r="B38" s="1">
         <v>53.2</v>
@@ -1594,10 +1605,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>44650</v>
+        <v>44615</v>
       </c>
       <c r="B39" s="1">
-        <v>53.8</v>
+        <v>53.2</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1605,10 +1616,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>44676</v>
+        <v>44650</v>
       </c>
       <c r="B40" s="1">
-        <v>51.8</v>
+        <v>53.8</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1616,10 +1627,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>44704</v>
+        <v>44676</v>
       </c>
       <c r="B41" s="1">
-        <v>54.7</v>
+        <v>51.8</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -1627,10 +1638,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>44741</v>
+        <v>44704</v>
       </c>
       <c r="B42" s="1">
-        <v>56</v>
+        <v>54.7</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -1638,10 +1649,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>44770</v>
+        <v>44741</v>
       </c>
       <c r="B43" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -1649,21 +1660,21 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
+        <v>44770</v>
+      </c>
+      <c r="B44" s="1">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>44798</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B45" s="1">
         <v>54.6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="9">
-        <v>44829</v>
-      </c>
-      <c r="B45" s="1">
-        <v>54.5</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -1671,10 +1682,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
-        <v>44841</v>
+        <v>44829</v>
       </c>
       <c r="B46" s="1">
-        <v>52</v>
+        <v>54.5</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1682,12 +1693,34 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
+        <v>44841</v>
+      </c>
+      <c r="B47" s="1">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="9">
         <v>44846</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B48" s="1">
         <v>51</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="9">
+        <v>44851</v>
+      </c>
+      <c r="B49" s="1">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1698,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD06F601-20B1-9C47-AE8D-2FB0DE090AFB}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C42" sqref="C41:C42"/>
+    <sheetView topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2201,6 +2234,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>44851</v>
+      </c>
+      <c r="B43" s="2">
+        <v>40</v>
+      </c>
+      <c r="C43" s="2">
+        <v>46</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2208,10 +2255,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099A9BFF-E3A6-4844-BB76-EED16C412818}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2485,22 +2532,22 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
-        <v>44223</v>
+      <c r="A25" s="6">
+        <v>44851</v>
       </c>
       <c r="B25" s="2">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>44245</v>
+        <v>44223</v>
       </c>
       <c r="B26" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -2508,10 +2555,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>44276</v>
+        <v>44245</v>
       </c>
       <c r="B27" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -2519,10 +2566,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>44298</v>
+        <v>44276</v>
       </c>
       <c r="B28" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -2530,10 +2577,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>44341</v>
+        <v>44298</v>
       </c>
       <c r="B29" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -2541,10 +2588,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>44363</v>
+        <v>44341</v>
       </c>
       <c r="B30" s="2">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -2552,7 +2599,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>44406</v>
+        <v>44363</v>
       </c>
       <c r="B31" s="2">
         <v>37</v>
@@ -2563,10 +2610,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>44418</v>
+        <v>44406</v>
       </c>
       <c r="B32" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -2574,10 +2621,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>44455</v>
+        <v>44418</v>
       </c>
       <c r="B33" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -2585,10 +2632,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>44479</v>
+        <v>44455</v>
       </c>
       <c r="B34" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -2596,10 +2643,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>44518</v>
+        <v>44479</v>
       </c>
       <c r="B35" s="2">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -2607,10 +2654,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>44538</v>
+        <v>44518</v>
       </c>
       <c r="B36" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -2618,10 +2665,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>44588</v>
+        <v>44538</v>
       </c>
       <c r="B37" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -2629,10 +2676,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>44614</v>
+        <v>44588</v>
       </c>
       <c r="B38" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -2640,7 +2687,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>44650</v>
+        <v>44614</v>
       </c>
       <c r="B39" s="2">
         <v>54</v>
@@ -2650,11 +2697,11 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
-        <v>44676</v>
+      <c r="A40" s="5">
+        <v>44650</v>
       </c>
       <c r="B40" s="2">
-        <v>53.5</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -2662,10 +2709,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>44697</v>
+        <v>44676</v>
       </c>
       <c r="B41" s="2">
-        <v>58</v>
+        <v>53.5</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -2673,10 +2720,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>44741</v>
+        <v>44697</v>
       </c>
       <c r="B42" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -2684,10 +2731,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>44770</v>
+        <v>44741</v>
       </c>
       <c r="B43" s="2">
-        <v>58.4</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -2695,10 +2742,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>44798</v>
+        <v>44770</v>
       </c>
       <c r="B44" s="2">
-        <v>53.6</v>
+        <v>58.4</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -2706,10 +2753,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>44829</v>
+        <v>44798</v>
       </c>
       <c r="B45" s="2">
-        <v>52.5</v>
+        <v>53.6</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -2717,10 +2764,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>44841</v>
-      </c>
-      <c r="B46" s="8">
-        <v>48.5</v>
+        <v>44829</v>
+      </c>
+      <c r="B46" s="2">
+        <v>52.5</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -2728,12 +2775,34 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
+        <v>44841</v>
+      </c>
+      <c r="B47" s="8">
+        <v>48.5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
         <v>44846</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B48" s="8">
         <v>46.5</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>44851</v>
+      </c>
+      <c r="B49" s="8">
+        <v>45.5</v>
+      </c>
+      <c r="C49" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Biden.xlsx
+++ b/Biden.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE30B73-7745-FF4D-965A-BFB47F71EB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0AB77D-A131-5843-AD65-3461681E4DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="1" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
+    <workbookView xWindow="3960" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="3" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
   </bookViews>
   <sheets>
     <sheet name="Biden" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43681286-F927-E54C-A395-4AA035D9B992}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61:B62"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1167,6 +1167,17 @@
         <v>53</v>
       </c>
     </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>44860</v>
+      </c>
+      <c r="B63" s="1">
+        <v>46</v>
+      </c>
+      <c r="C63" s="1">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1176,7 +1187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB862CE-D7C4-494E-8917-822D530E68D9}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1731,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD06F601-20B1-9C47-AE8D-2FB0DE090AFB}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B43"/>
+    <sheetView topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2248,6 +2259,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>44860</v>
+      </c>
+      <c r="B44" s="2">
+        <v>56</v>
+      </c>
+      <c r="C44" s="2">
+        <v>30</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2255,10 +2280,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099A9BFF-E3A6-4844-BB76-EED16C412818}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2543,22 +2568,22 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>44223</v>
+      <c r="A26" s="6">
+        <v>44860</v>
       </c>
       <c r="B26" s="2">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>44245</v>
+        <v>44223</v>
       </c>
       <c r="B27" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -2566,10 +2591,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>44276</v>
+        <v>44245</v>
       </c>
       <c r="B28" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -2577,10 +2602,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>44298</v>
+        <v>44276</v>
       </c>
       <c r="B29" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -2588,10 +2613,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>44341</v>
+        <v>44298</v>
       </c>
       <c r="B30" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -2599,10 +2624,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>44363</v>
+        <v>44341</v>
       </c>
       <c r="B31" s="2">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -2610,7 +2635,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>44406</v>
+        <v>44363</v>
       </c>
       <c r="B32" s="2">
         <v>37</v>
@@ -2621,10 +2646,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>44418</v>
+        <v>44406</v>
       </c>
       <c r="B33" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -2632,10 +2657,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>44455</v>
+        <v>44418</v>
       </c>
       <c r="B34" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -2643,10 +2668,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>44479</v>
+        <v>44455</v>
       </c>
       <c r="B35" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -2654,10 +2679,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>44518</v>
+        <v>44479</v>
       </c>
       <c r="B36" s="2">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -2665,10 +2690,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>44538</v>
+        <v>44518</v>
       </c>
       <c r="B37" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -2676,10 +2701,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>44588</v>
+        <v>44538</v>
       </c>
       <c r="B38" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -2687,10 +2712,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>44614</v>
+        <v>44588</v>
       </c>
       <c r="B39" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -2698,7 +2723,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>44650</v>
+        <v>44614</v>
       </c>
       <c r="B40" s="2">
         <v>54</v>
@@ -2708,11 +2733,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
-        <v>44676</v>
+      <c r="A41" s="5">
+        <v>44650</v>
       </c>
       <c r="B41" s="2">
-        <v>53.5</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -2720,10 +2745,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>44697</v>
+        <v>44676</v>
       </c>
       <c r="B42" s="2">
-        <v>58</v>
+        <v>53.5</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -2731,10 +2756,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>44741</v>
+        <v>44697</v>
       </c>
       <c r="B43" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -2742,10 +2767,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>44770</v>
+        <v>44741</v>
       </c>
       <c r="B44" s="2">
-        <v>58.4</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -2753,10 +2778,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>44798</v>
+        <v>44770</v>
       </c>
       <c r="B45" s="2">
-        <v>53.6</v>
+        <v>58.4</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -2764,10 +2789,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>44829</v>
+        <v>44798</v>
       </c>
       <c r="B46" s="2">
-        <v>52.5</v>
+        <v>53.6</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -2775,10 +2800,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>44841</v>
-      </c>
-      <c r="B47" s="8">
-        <v>48.5</v>
+        <v>44829</v>
+      </c>
+      <c r="B47" s="2">
+        <v>52.5</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -2786,10 +2811,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>44846</v>
+        <v>44841</v>
       </c>
       <c r="B48" s="8">
-        <v>46.5</v>
+        <v>48.5</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -2797,12 +2822,34 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
+        <v>44846</v>
+      </c>
+      <c r="B49" s="8">
+        <v>46.5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
         <v>44851</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B50" s="8">
         <v>45.5</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>44860</v>
+      </c>
+      <c r="B51" s="8">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Biden.xlsx
+++ b/Biden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0AB77D-A131-5843-AD65-3461681E4DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3071441D-28A3-F149-8C6A-6D6D39822DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="3" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43681286-F927-E54C-A395-4AA035D9B992}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="B65" sqref="B64:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1178,6 +1178,28 @@
         <v>53</v>
       </c>
     </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>44872</v>
+      </c>
+      <c r="B64" s="1">
+        <v>41</v>
+      </c>
+      <c r="C64" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>44881</v>
+      </c>
+      <c r="B65" s="1">
+        <v>42</v>
+      </c>
+      <c r="C65" s="1">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1185,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB862CE-D7C4-494E-8917-822D530E68D9}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1472,33 +1494,33 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
-        <v>44222</v>
+      <c r="A26" s="9">
+        <v>44872</v>
       </c>
       <c r="B26" s="1">
-        <v>33</v>
+        <v>43.5</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>44245</v>
+      <c r="A27" s="9">
+        <v>44881</v>
       </c>
       <c r="B27" s="1">
-        <v>42</v>
+        <v>41.5</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>44276</v>
+        <v>44222</v>
       </c>
       <c r="B28" s="1">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -1506,10 +1528,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>44309</v>
+        <v>44245</v>
       </c>
       <c r="B29" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1517,10 +1539,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>44341</v>
+        <v>44276</v>
       </c>
       <c r="B30" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -1528,7 +1550,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>44369</v>
+        <v>44309</v>
       </c>
       <c r="B31" s="1">
         <v>43</v>
@@ -1539,10 +1561,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>44400</v>
+        <v>44341</v>
       </c>
       <c r="B32" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -1550,43 +1572,43 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
+        <v>44369</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>44400</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>44426</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B35" s="1">
         <v>46</v>
       </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="9">
         <v>44462</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B36" s="1">
         <v>47.7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
-        <v>44495</v>
-      </c>
-      <c r="B35" s="1">
-        <v>52.5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>44518</v>
-      </c>
-      <c r="B36" s="1">
-        <v>53</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1594,43 +1616,43 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
+        <v>44495</v>
+      </c>
+      <c r="B37" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>44518</v>
+      </c>
+      <c r="B38" s="1">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="9">
         <v>44549</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B39" s="1">
         <v>55.3</v>
       </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="9">
         <v>44584</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B40" s="1">
         <v>53.2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
-        <v>44615</v>
-      </c>
-      <c r="B39" s="1">
-        <v>53.2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
-        <v>44650</v>
-      </c>
-      <c r="B40" s="1">
-        <v>53.8</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1638,10 +1660,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>44676</v>
+        <v>44615</v>
       </c>
       <c r="B41" s="1">
-        <v>51.8</v>
+        <v>53.2</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -1649,10 +1671,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>44704</v>
+        <v>44650</v>
       </c>
       <c r="B42" s="1">
-        <v>54.7</v>
+        <v>53.8</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -1660,10 +1682,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>44741</v>
+        <v>44676</v>
       </c>
       <c r="B43" s="1">
-        <v>56</v>
+        <v>51.8</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -1671,10 +1693,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
-        <v>44770</v>
+        <v>44704</v>
       </c>
       <c r="B44" s="1">
-        <v>57</v>
+        <v>54.7</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1682,32 +1704,32 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B45" s="1">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>44770</v>
+      </c>
+      <c r="B46" s="1">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
         <v>44798</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B47" s="1">
         <v>54.6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="9">
-        <v>44829</v>
-      </c>
-      <c r="B46" s="1">
-        <v>54.5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="9">
-        <v>44841</v>
-      </c>
-      <c r="B47" s="1">
-        <v>52</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1715,10 +1737,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
-        <v>44846</v>
+        <v>44829</v>
       </c>
       <c r="B48" s="1">
-        <v>51</v>
+        <v>54.5</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -1726,12 +1748,56 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
+        <v>44841</v>
+      </c>
+      <c r="B49" s="1">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
+        <v>44846</v>
+      </c>
+      <c r="B50" s="1">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
         <v>44851</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B51" s="1">
         <v>53</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="9">
+        <v>44872</v>
+      </c>
+      <c r="B52" s="1">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="9">
+        <v>44881</v>
+      </c>
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1742,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD06F601-20B1-9C47-AE8D-2FB0DE090AFB}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:B44"/>
+    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2273,6 +2339,34 @@
         <v>6</v>
       </c>
     </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>44872</v>
+      </c>
+      <c r="B45" s="2">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2">
+        <v>41</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>44881</v>
+      </c>
+      <c r="B46" s="2">
+        <v>46</v>
+      </c>
+      <c r="C46" s="2">
+        <v>46</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2280,10 +2374,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099A9BFF-E3A6-4844-BB76-EED16C412818}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2579,33 +2673,33 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
-        <v>44223</v>
+      <c r="A27" s="6">
+        <v>44872</v>
       </c>
       <c r="B27" s="2">
-        <v>23</v>
+        <v>51.5</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>44245</v>
+      <c r="A28" s="6">
+        <v>44881</v>
       </c>
       <c r="B28" s="2">
-        <v>32</v>
+        <v>46.5</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>44276</v>
+        <v>44223</v>
       </c>
       <c r="B29" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -2613,10 +2707,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>44298</v>
+        <v>44245</v>
       </c>
       <c r="B30" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -2624,10 +2718,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>44341</v>
+        <v>44276</v>
       </c>
       <c r="B31" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -2635,10 +2729,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>44363</v>
+        <v>44298</v>
       </c>
       <c r="B32" s="2">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -2646,10 +2740,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>44406</v>
+        <v>44341</v>
       </c>
       <c r="B33" s="2">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -2657,10 +2751,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>44418</v>
+        <v>44363</v>
       </c>
       <c r="B34" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -2668,10 +2762,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>44455</v>
+        <v>44406</v>
       </c>
       <c r="B35" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -2679,10 +2773,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>44479</v>
+        <v>44418</v>
       </c>
       <c r="B36" s="2">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -2690,10 +2784,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>44518</v>
+        <v>44455</v>
       </c>
       <c r="B37" s="2">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -2701,7 +2795,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>44538</v>
+        <v>44479</v>
       </c>
       <c r="B38" s="2">
         <v>49</v>
@@ -2712,10 +2806,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>44588</v>
+        <v>44518</v>
       </c>
       <c r="B39" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -2723,10 +2817,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>44614</v>
+        <v>44538</v>
       </c>
       <c r="B40" s="2">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -2734,32 +2828,32 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
+        <v>44588</v>
+      </c>
+      <c r="B41" s="2">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>44614</v>
+      </c>
+      <c r="B42" s="2">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>44650</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B43" s="2">
         <v>54</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
-        <v>44676</v>
-      </c>
-      <c r="B42" s="2">
-        <v>53.5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
-        <v>44697</v>
-      </c>
-      <c r="B43" s="2">
-        <v>58</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -2767,10 +2861,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>44741</v>
+        <v>44676</v>
       </c>
       <c r="B44" s="2">
-        <v>55</v>
+        <v>53.5</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -2778,10 +2872,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>44770</v>
+        <v>44697</v>
       </c>
       <c r="B45" s="2">
-        <v>58.4</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -2789,10 +2883,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>44798</v>
+        <v>44741</v>
       </c>
       <c r="B46" s="2">
-        <v>53.6</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -2800,10 +2894,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>44829</v>
+        <v>44770</v>
       </c>
       <c r="B47" s="2">
-        <v>52.5</v>
+        <v>58.4</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -2811,10 +2905,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>44841</v>
-      </c>
-      <c r="B48" s="8">
-        <v>48.5</v>
+        <v>44798</v>
+      </c>
+      <c r="B48" s="2">
+        <v>53.6</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -2822,10 +2916,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>44846</v>
-      </c>
-      <c r="B49" s="8">
-        <v>46.5</v>
+        <v>44829</v>
+      </c>
+      <c r="B49" s="2">
+        <v>52.5</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -2833,10 +2927,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>44851</v>
+        <v>44841</v>
       </c>
       <c r="B50" s="8">
-        <v>45.5</v>
+        <v>48.5</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -2844,12 +2938,56 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
+        <v>44846</v>
+      </c>
+      <c r="B51" s="8">
+        <v>46.5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>44851</v>
+      </c>
+      <c r="B52" s="8">
+        <v>45.5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
         <v>44860</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B53" s="8">
         <v>38</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>44872</v>
+      </c>
+      <c r="B54" s="8">
+        <v>35.5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>44881</v>
+      </c>
+      <c r="B55" s="8">
+        <v>43.5</v>
+      </c>
+      <c r="C55" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Biden.xlsx
+++ b/Biden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3071441D-28A3-F149-8C6A-6D6D39822DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8F118C-6EED-7849-8AEF-2E9D0134ABC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="3" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
+    <workbookView xWindow="7560" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="3" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
   </bookViews>
   <sheets>
     <sheet name="Biden" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43681286-F927-E54C-A395-4AA035D9B992}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B65" sqref="B64:B65"/>
+      <selection activeCell="B66" sqref="B66:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1200,6 +1200,28 @@
         <v>53</v>
       </c>
     </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>44884</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43</v>
+      </c>
+      <c r="C66" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>44885</v>
+      </c>
+      <c r="B67" s="1">
+        <v>36</v>
+      </c>
+      <c r="C67" s="1">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1207,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB862CE-D7C4-494E-8917-822D530E68D9}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1516,22 +1538,22 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
-        <v>44222</v>
+      <c r="A28" s="9">
+        <v>44885</v>
       </c>
       <c r="B28" s="1">
-        <v>33</v>
+        <v>39.5</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>44245</v>
+        <v>44222</v>
       </c>
       <c r="B29" s="1">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1539,10 +1561,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>44276</v>
+        <v>44245</v>
       </c>
       <c r="B30" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -1550,10 +1572,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>44309</v>
+        <v>44276</v>
       </c>
       <c r="B31" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -1561,10 +1583,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>44341</v>
+        <v>44309</v>
       </c>
       <c r="B32" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -1572,10 +1594,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>44369</v>
+        <v>44341</v>
       </c>
       <c r="B33" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -1583,7 +1605,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>44400</v>
+        <v>44369</v>
       </c>
       <c r="B34" s="1">
         <v>43</v>
@@ -1594,21 +1616,21 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
+        <v>44400</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
         <v>44426</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36" s="1">
         <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
-        <v>44462</v>
-      </c>
-      <c r="B36" s="1">
-        <v>47.7</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1616,32 +1638,32 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
+        <v>44462</v>
+      </c>
+      <c r="B37" s="1">
+        <v>47.7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="9">
         <v>44495</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B38" s="1">
         <v>52.5</v>
       </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>44518</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B39" s="1">
         <v>53</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
-        <v>44549</v>
-      </c>
-      <c r="B39" s="1">
-        <v>55.3</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1649,18 +1671,18 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
+        <v>44549</v>
+      </c>
+      <c r="B40" s="1">
+        <v>55.3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
         <v>44584</v>
-      </c>
-      <c r="B40" s="1">
-        <v>53.2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
-        <v>44615</v>
       </c>
       <c r="B41" s="1">
         <v>53.2</v>
@@ -1671,10 +1693,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>44650</v>
+        <v>44615</v>
       </c>
       <c r="B42" s="1">
-        <v>53.8</v>
+        <v>53.2</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -1682,10 +1704,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>44676</v>
+        <v>44650</v>
       </c>
       <c r="B43" s="1">
-        <v>51.8</v>
+        <v>53.8</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -1693,10 +1715,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
-        <v>44704</v>
+        <v>44676</v>
       </c>
       <c r="B44" s="1">
-        <v>54.7</v>
+        <v>51.8</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1704,10 +1726,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>44741</v>
+        <v>44704</v>
       </c>
       <c r="B45" s="1">
-        <v>56</v>
+        <v>54.7</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -1715,10 +1737,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <v>44770</v>
+        <v>44741</v>
       </c>
       <c r="B46" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1726,21 +1748,21 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
+        <v>44770</v>
+      </c>
+      <c r="B47" s="1">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
         <v>44798</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B48" s="1">
         <v>54.6</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="9">
-        <v>44829</v>
-      </c>
-      <c r="B48" s="1">
-        <v>54.5</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -1748,10 +1770,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
-        <v>44841</v>
+        <v>44829</v>
       </c>
       <c r="B49" s="1">
-        <v>52</v>
+        <v>54.5</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -1759,10 +1781,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
-        <v>44846</v>
+        <v>44841</v>
       </c>
       <c r="B50" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -1770,10 +1792,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
-        <v>44851</v>
+        <v>44846</v>
       </c>
       <c r="B51" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -1781,10 +1803,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
-        <v>44872</v>
+        <v>44851</v>
       </c>
       <c r="B52" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -1792,12 +1814,34 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
-        <v>44881</v>
+        <v>44872</v>
       </c>
       <c r="B53" s="1">
         <v>51</v>
       </c>
       <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="9">
+        <v>44881</v>
+      </c>
+      <c r="B54" s="1">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="9">
+        <v>44885</v>
+      </c>
+      <c r="B55" s="1">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1808,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD06F601-20B1-9C47-AE8D-2FB0DE090AFB}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:B46"/>
+      <selection activeCell="B47" sqref="B47:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2367,6 +2411,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>44884</v>
+      </c>
+      <c r="B47" s="2">
+        <v>49</v>
+      </c>
+      <c r="C47" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>44885</v>
+      </c>
+      <c r="B48" s="2">
+        <v>39</v>
+      </c>
+      <c r="C48" s="2">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2374,10 +2440,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099A9BFF-E3A6-4844-BB76-EED16C412818}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2695,22 +2761,22 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
-        <v>44223</v>
+      <c r="A29" s="6">
+        <v>44885</v>
       </c>
       <c r="B29" s="2">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>44245</v>
+        <v>44223</v>
       </c>
       <c r="B30" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -2718,10 +2784,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>44276</v>
+        <v>44245</v>
       </c>
       <c r="B31" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -2729,10 +2795,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>44298</v>
+        <v>44276</v>
       </c>
       <c r="B32" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -2740,10 +2806,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>44341</v>
+        <v>44298</v>
       </c>
       <c r="B33" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -2751,10 +2817,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>44363</v>
+        <v>44341</v>
       </c>
       <c r="B34" s="2">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -2762,7 +2828,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>44406</v>
+        <v>44363</v>
       </c>
       <c r="B35" s="2">
         <v>37</v>
@@ -2773,10 +2839,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>44418</v>
+        <v>44406</v>
       </c>
       <c r="B36" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -2784,10 +2850,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>44455</v>
+        <v>44418</v>
       </c>
       <c r="B37" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -2795,10 +2861,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>44479</v>
+        <v>44455</v>
       </c>
       <c r="B38" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -2806,10 +2872,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>44518</v>
+        <v>44479</v>
       </c>
       <c r="B39" s="2">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -2817,10 +2883,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>44538</v>
+        <v>44518</v>
       </c>
       <c r="B40" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -2828,10 +2894,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>44588</v>
+        <v>44538</v>
       </c>
       <c r="B41" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -2839,10 +2905,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>44614</v>
+        <v>44588</v>
       </c>
       <c r="B42" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -2850,7 +2916,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>44650</v>
+        <v>44614</v>
       </c>
       <c r="B43" s="2">
         <v>54</v>
@@ -2860,11 +2926,11 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
-        <v>44676</v>
+      <c r="A44" s="5">
+        <v>44650</v>
       </c>
       <c r="B44" s="2">
-        <v>53.5</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -2872,10 +2938,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>44697</v>
+        <v>44676</v>
       </c>
       <c r="B45" s="2">
-        <v>58</v>
+        <v>53.5</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -2883,10 +2949,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>44741</v>
+        <v>44697</v>
       </c>
       <c r="B46" s="2">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -2894,10 +2960,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>44770</v>
+        <v>44741</v>
       </c>
       <c r="B47" s="2">
-        <v>58.4</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -2905,10 +2971,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>44798</v>
+        <v>44770</v>
       </c>
       <c r="B48" s="2">
-        <v>53.6</v>
+        <v>58.4</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -2916,10 +2982,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>44829</v>
+        <v>44798</v>
       </c>
       <c r="B49" s="2">
-        <v>52.5</v>
+        <v>53.6</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -2927,10 +2993,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>44841</v>
-      </c>
-      <c r="B50" s="8">
-        <v>48.5</v>
+        <v>44829</v>
+      </c>
+      <c r="B50" s="2">
+        <v>52.5</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -2938,10 +3004,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>44846</v>
+        <v>44841</v>
       </c>
       <c r="B51" s="8">
-        <v>46.5</v>
+        <v>48.5</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -2949,10 +3015,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>44851</v>
+        <v>44846</v>
       </c>
       <c r="B52" s="8">
-        <v>45.5</v>
+        <v>46.5</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -2960,10 +3026,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>44860</v>
+        <v>44851</v>
       </c>
       <c r="B53" s="8">
-        <v>38</v>
+        <v>45.5</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -2971,10 +3037,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>44872</v>
+        <v>44860</v>
       </c>
       <c r="B54" s="8">
-        <v>35.5</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -2982,12 +3048,34 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
+        <v>44872</v>
+      </c>
+      <c r="B55" s="8">
+        <v>35.5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
         <v>44881</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B56" s="8">
         <v>43.5</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>44885</v>
+      </c>
+      <c r="B57" s="8">
+        <v>46</v>
+      </c>
+      <c r="C57" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Biden.xlsx
+++ b/Biden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8F118C-6EED-7849-8AEF-2E9D0134ABC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3E5174-9333-E049-AB56-5016532D947C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="3" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
+    <workbookView xWindow="7420" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="3" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
   </bookViews>
   <sheets>
     <sheet name="Biden" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -81,6 +81,21 @@
   </si>
   <si>
     <t>FOX</t>
+  </si>
+  <si>
+    <t>monmouth</t>
+  </si>
+  <si>
+    <t>quinn</t>
+  </si>
+  <si>
+    <t>echelon</t>
+  </si>
+  <si>
+    <t>2//9/23</t>
+  </si>
+  <si>
+    <t>1//11/23</t>
   </si>
 </sst>
 </file>
@@ -474,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43681286-F927-E54C-A395-4AA035D9B992}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66:B67"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1189,7 +1204,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
         <v>44881</v>
       </c>
@@ -1200,7 +1215,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6">
         <v>44884</v>
       </c>
@@ -1211,7 +1226,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6">
         <v>44885</v>
       </c>
@@ -1220,6 +1235,188 @@
       </c>
       <c r="C67" s="1">
         <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>44901</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45</v>
+      </c>
+      <c r="C68" s="1">
+        <v>48</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>44903</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43</v>
+      </c>
+      <c r="C69" s="1">
+        <v>50</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>44904</v>
+      </c>
+      <c r="B70" s="1">
+        <v>43</v>
+      </c>
+      <c r="C70" s="1">
+        <v>49</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>44907</v>
+      </c>
+      <c r="B71" s="1">
+        <v>44</v>
+      </c>
+      <c r="C71" s="1">
+        <v>56</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>44909</v>
+      </c>
+      <c r="B72" s="1">
+        <v>43</v>
+      </c>
+      <c r="C72" s="1">
+        <v>54</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>44937</v>
+      </c>
+      <c r="B73" s="1">
+        <v>38</v>
+      </c>
+      <c r="C73" s="1">
+        <v>53</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>44949</v>
+      </c>
+      <c r="B74" s="1">
+        <v>40</v>
+      </c>
+      <c r="C74" s="1">
+        <v>57</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>44952</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45</v>
+      </c>
+      <c r="C75" s="1">
+        <v>48</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>44956</v>
+      </c>
+      <c r="B76" s="1">
+        <v>44</v>
+      </c>
+      <c r="C76" s="1">
+        <v>49</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>44956</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45</v>
+      </c>
+      <c r="C77" s="1">
+        <v>54</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="1">
+        <v>40</v>
+      </c>
+      <c r="C78" s="1">
+        <v>55</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>44970</v>
+      </c>
+      <c r="B79" s="1">
+        <v>49</v>
+      </c>
+      <c r="C79" s="1">
+        <v>45</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>44978</v>
+      </c>
+      <c r="B80" s="1">
+        <v>43</v>
+      </c>
+      <c r="C80" s="1">
+        <v>56</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1229,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB862CE-D7C4-494E-8917-822D530E68D9}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1549,110 +1746,110 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="9">
+        <v>44904</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43.7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="9">
+        <v>44909</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
+        <v>44952</v>
+      </c>
+      <c r="B32" s="1">
+        <v>42.5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
+        <v>44956</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44.5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>44970</v>
+      </c>
+      <c r="B35" s="1">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>44978</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <v>44222</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B37" s="1">
         <v>33</v>
       </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>44245</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B38" s="1">
         <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>44276</v>
-      </c>
-      <c r="B31" s="1">
-        <v>44</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>44309</v>
-      </c>
-      <c r="B32" s="1">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
-        <v>44341</v>
-      </c>
-      <c r="B33" s="1">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
-        <v>44369</v>
-      </c>
-      <c r="B34" s="1">
-        <v>43</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
-        <v>44400</v>
-      </c>
-      <c r="B35" s="1">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>44426</v>
-      </c>
-      <c r="B36" s="1">
-        <v>46</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
-        <v>44462</v>
-      </c>
-      <c r="B37" s="1">
-        <v>47.7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
-        <v>44495</v>
-      </c>
-      <c r="B38" s="1">
-        <v>52.5</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -1660,32 +1857,32 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>44518</v>
+        <v>44276</v>
       </c>
       <c r="B39" s="1">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
-        <v>44549</v>
+      <c r="A40" s="5">
+        <v>44309</v>
       </c>
       <c r="B40" s="1">
-        <v>55.3</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
-        <v>44584</v>
+      <c r="A41" s="5">
+        <v>44341</v>
       </c>
       <c r="B41" s="1">
-        <v>53.2</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -1693,10 +1890,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>44615</v>
+        <v>44369</v>
       </c>
       <c r="B42" s="1">
-        <v>53.2</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -1704,10 +1901,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>44650</v>
+        <v>44400</v>
       </c>
       <c r="B43" s="1">
-        <v>53.8</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -1715,32 +1912,32 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
-        <v>44676</v>
+        <v>44426</v>
       </c>
       <c r="B44" s="1">
-        <v>51.8</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
-        <v>44704</v>
+      <c r="A45" s="9">
+        <v>44462</v>
       </c>
       <c r="B45" s="1">
-        <v>54.7</v>
+        <v>47.7</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
-        <v>44741</v>
+      <c r="A46" s="9">
+        <v>44495</v>
       </c>
       <c r="B46" s="1">
-        <v>56</v>
+        <v>52.5</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1748,21 +1945,21 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>44770</v>
+        <v>44518</v>
       </c>
       <c r="B47" s="1">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
-        <v>44798</v>
+      <c r="A48" s="9">
+        <v>44549</v>
       </c>
       <c r="B48" s="1">
-        <v>54.6</v>
+        <v>55.3</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -1770,78 +1967,254 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
+        <v>44584</v>
+      </c>
+      <c r="B49" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>44615</v>
+      </c>
+      <c r="B50" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>44650</v>
+      </c>
+      <c r="B51" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>44676</v>
+      </c>
+      <c r="B52" s="1">
+        <v>51.8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>44704</v>
+      </c>
+      <c r="B53" s="1">
+        <v>54.7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B54" s="1">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>44770</v>
+      </c>
+      <c r="B55" s="1">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>44798</v>
+      </c>
+      <c r="B56" s="1">
+        <v>54.6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="9">
         <v>44829</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B57" s="1">
         <v>54.5</v>
       </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="9">
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="9">
         <v>44841</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B58" s="1">
         <v>52</v>
       </c>
-      <c r="C50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="9">
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="9">
         <v>44846</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B59" s="1">
         <v>51</v>
       </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="9">
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="9">
         <v>44851</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B60" s="1">
         <v>53</v>
       </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="9">
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="9">
         <v>44872</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B61" s="1">
         <v>51</v>
       </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="9">
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="9">
         <v>44881</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B62" s="1">
         <v>51</v>
       </c>
-      <c r="C54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="9">
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="9">
         <v>44885</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B63" s="1">
         <v>55</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="9">
+        <v>44904</v>
+      </c>
+      <c r="B64" s="1">
+        <v>49</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="9">
+        <v>44909</v>
+      </c>
+      <c r="B65" s="1">
+        <v>55</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="1">
+        <v>53</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
+        <v>44952</v>
+      </c>
+      <c r="B67" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
+        <v>44956</v>
+      </c>
+      <c r="B68" s="1">
+        <v>51.5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="1">
+        <v>55</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>44970</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>44978</v>
+      </c>
+      <c r="B71" s="1">
+        <v>56</v>
+      </c>
+      <c r="C71" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1852,10 +2225,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD06F601-20B1-9C47-AE8D-2FB0DE090AFB}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:B48"/>
+    <sheetView topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2433,6 +2806,188 @@
         <v>49</v>
       </c>
     </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>44901</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45</v>
+      </c>
+      <c r="C49" s="2">
+        <v>39</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>44903</v>
+      </c>
+      <c r="B50" s="2">
+        <v>51</v>
+      </c>
+      <c r="C50" s="2">
+        <v>43</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>44904</v>
+      </c>
+      <c r="B51" s="2">
+        <v>40</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>44907</v>
+      </c>
+      <c r="B52" s="2">
+        <v>56</v>
+      </c>
+      <c r="C52" s="2">
+        <v>43</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>44909</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44</v>
+      </c>
+      <c r="C53" s="2">
+        <v>46</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>44937</v>
+      </c>
+      <c r="B54" s="2">
+        <v>34</v>
+      </c>
+      <c r="C54" s="2">
+        <v>52</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>44949</v>
+      </c>
+      <c r="B55" s="2">
+        <v>43</v>
+      </c>
+      <c r="C55" s="2">
+        <v>50</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>44952</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45</v>
+      </c>
+      <c r="C56" s="2">
+        <v>47</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>44956</v>
+      </c>
+      <c r="B57" s="2">
+        <v>49</v>
+      </c>
+      <c r="C57" s="2">
+        <v>35</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>44956</v>
+      </c>
+      <c r="B58" s="2">
+        <v>52</v>
+      </c>
+      <c r="C58" s="2">
+        <v>46</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="2">
+        <v>38</v>
+      </c>
+      <c r="C59" s="2">
+        <v>56</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>44970</v>
+      </c>
+      <c r="B60" s="2">
+        <v>51</v>
+      </c>
+      <c r="C60" s="2">
+        <v>38</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>44978</v>
+      </c>
+      <c r="B61" s="2">
+        <v>46</v>
+      </c>
+      <c r="C61" s="2">
+        <v>52</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2440,10 +2995,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099A9BFF-E3A6-4844-BB76-EED16C412818}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2772,99 +3327,99 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
-        <v>44223</v>
+      <c r="A30" s="9">
+        <v>44904</v>
       </c>
       <c r="B30" s="2">
-        <v>23</v>
+        <v>45.3</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
-        <v>44245</v>
+      <c r="A31" s="9">
+        <v>44909</v>
       </c>
       <c r="B31" s="2">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
-        <v>44276</v>
+      <c r="A32" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B32" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
-        <v>44298</v>
+      <c r="A33" s="9">
+        <v>44952</v>
       </c>
       <c r="B33" s="2">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
-        <v>44341</v>
+      <c r="A34" s="9">
+        <v>44956</v>
       </c>
       <c r="B34" s="2">
-        <v>26</v>
+        <v>50.5</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
-        <v>44363</v>
+      <c r="A35" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B35" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
-        <v>44406</v>
+      <c r="A36" s="6">
+        <v>44970</v>
       </c>
       <c r="B36" s="2">
-        <v>37</v>
+        <v>44.5</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <v>44418</v>
+      <c r="A37" s="6">
+        <v>44978</v>
       </c>
       <c r="B37" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>44455</v>
+        <v>44223</v>
       </c>
       <c r="B38" s="2">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -2872,10 +3427,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>44479</v>
+        <v>44245</v>
       </c>
       <c r="B39" s="2">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -2883,10 +3438,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>44518</v>
+        <v>44276</v>
       </c>
       <c r="B40" s="2">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -2894,10 +3449,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>44538</v>
+        <v>44298</v>
       </c>
       <c r="B41" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -2905,10 +3460,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>44588</v>
+        <v>44341</v>
       </c>
       <c r="B42" s="2">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -2916,10 +3471,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>44614</v>
+        <v>44363</v>
       </c>
       <c r="B43" s="2">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -2927,98 +3482,98 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
+        <v>44406</v>
+      </c>
+      <c r="B44" s="2">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>44418</v>
+      </c>
+      <c r="B45" s="2">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>44455</v>
+      </c>
+      <c r="B46" s="2">
+        <v>39</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>44479</v>
+      </c>
+      <c r="B47" s="2">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>44518</v>
+      </c>
+      <c r="B48" s="2">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>44538</v>
+      </c>
+      <c r="B49" s="2">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>44588</v>
+      </c>
+      <c r="B50" s="2">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>44614</v>
+      </c>
+      <c r="B51" s="2">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
         <v>44650</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B52" s="2">
         <v>54</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
-        <v>44676</v>
-      </c>
-      <c r="B45" s="2">
-        <v>53.5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
-        <v>44697</v>
-      </c>
-      <c r="B46" s="2">
-        <v>58</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
-        <v>44741</v>
-      </c>
-      <c r="B47" s="2">
-        <v>55</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
-        <v>44770</v>
-      </c>
-      <c r="B48" s="2">
-        <v>58.4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
-        <v>44798</v>
-      </c>
-      <c r="B49" s="2">
-        <v>53.6</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
-        <v>44829</v>
-      </c>
-      <c r="B50" s="2">
-        <v>52.5</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
-        <v>44841</v>
-      </c>
-      <c r="B51" s="8">
-        <v>48.5</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
-        <v>44846</v>
-      </c>
-      <c r="B52" s="8">
-        <v>46.5</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -3026,10 +3581,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>44851</v>
-      </c>
-      <c r="B53" s="8">
-        <v>45.5</v>
+        <v>44676</v>
+      </c>
+      <c r="B53" s="2">
+        <v>53.5</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -3037,10 +3592,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
-        <v>44860</v>
-      </c>
-      <c r="B54" s="8">
-        <v>38</v>
+        <v>44697</v>
+      </c>
+      <c r="B54" s="2">
+        <v>58</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -3048,10 +3603,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>44872</v>
-      </c>
-      <c r="B55" s="8">
-        <v>35.5</v>
+        <v>44741</v>
+      </c>
+      <c r="B55" s="2">
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -3059,10 +3614,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>44881</v>
-      </c>
-      <c r="B56" s="8">
-        <v>43.5</v>
+        <v>44770</v>
+      </c>
+      <c r="B56" s="2">
+        <v>58.4</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -3070,12 +3625,188 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
+        <v>44798</v>
+      </c>
+      <c r="B57" s="2">
+        <v>53.6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>44829</v>
+      </c>
+      <c r="B58" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>44841</v>
+      </c>
+      <c r="B59" s="8">
+        <v>48.5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>44846</v>
+      </c>
+      <c r="B60" s="8">
+        <v>46.5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>44851</v>
+      </c>
+      <c r="B61" s="8">
+        <v>45.5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>44860</v>
+      </c>
+      <c r="B62" s="8">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>44872</v>
+      </c>
+      <c r="B63" s="8">
+        <v>35.5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>44881</v>
+      </c>
+      <c r="B64" s="8">
+        <v>43.5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
         <v>44885</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B65" s="8">
         <v>46</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="9">
+        <v>44904</v>
+      </c>
+      <c r="B66" s="8">
+        <v>42.3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="9">
+        <v>44909</v>
+      </c>
+      <c r="B67" s="8">
+        <v>44.5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="8">
+        <v>52</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
+        <v>44952</v>
+      </c>
+      <c r="B69" s="8">
+        <v>48.5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
+        <v>44956</v>
+      </c>
+      <c r="B70" s="8">
+        <v>40.5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="8">
+        <v>56</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>44970</v>
+      </c>
+      <c r="B72" s="8">
+        <v>47</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>44978</v>
+      </c>
+      <c r="B73" s="8">
+        <v>52</v>
+      </c>
+      <c r="C73" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Biden.xlsx
+++ b/Biden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3E5174-9333-E049-AB56-5016532D947C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D970B4ED-F89A-3440-BD50-8DB8BABFFBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="3" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
+    <workbookView xWindow="7420" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="1" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
   </bookViews>
   <sheets>
     <sheet name="Biden" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43681286-F927-E54C-A395-4AA035D9B992}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="A68" sqref="A68:A80"/>
     </sheetView>
   </sheetViews>
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB862CE-D7C4-494E-8917-822D530E68D9}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:A71"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2997,7 +2997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099A9BFF-E3A6-4844-BB76-EED16C412818}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>

--- a/Biden.xlsx
+++ b/Biden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameskuria/Documents/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D970B4ED-F89A-3440-BD50-8DB8BABFFBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB056CFE-32BB-014F-9B8D-3E25E79143D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="1" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
+    <workbookView xWindow="10200" yWindow="500" windowWidth="28040" windowHeight="15800" activeTab="3" xr2:uid="{53B57F30-71E7-1D41-9C89-C23F72AD763F}"/>
   </bookViews>
   <sheets>
     <sheet name="Biden" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>2//9/23</t>
-  </si>
-  <si>
-    <t>1//11/23</t>
   </si>
 </sst>
 </file>
@@ -489,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43681286-F927-E54C-A395-4AA035D9B992}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:A80"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85:B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1419,6 +1416,90 @@
         <v>16</v>
       </c>
     </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>44994</v>
+      </c>
+      <c r="B82" s="1">
+        <v>39</v>
+      </c>
+      <c r="C82" s="1">
+        <v>55</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>45005</v>
+      </c>
+      <c r="B83">
+        <v>43</v>
+      </c>
+      <c r="C83">
+        <v>50</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>45006</v>
+      </c>
+      <c r="B84">
+        <v>41</v>
+      </c>
+      <c r="C84">
+        <v>51</v>
+      </c>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>45009</v>
+      </c>
+      <c r="B85">
+        <v>44</v>
+      </c>
+      <c r="C85">
+        <v>56</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>45012</v>
+      </c>
+      <c r="B86" s="2">
+        <v>38</v>
+      </c>
+      <c r="C86" s="2">
+        <v>57</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>45014</v>
+      </c>
+      <c r="B87">
+        <v>43</v>
+      </c>
+      <c r="C87">
+        <v>56</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1426,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB862CE-D7C4-494E-8917-822D530E68D9}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1768,8 +1849,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>18</v>
+      <c r="A31" s="9">
+        <v>44937</v>
       </c>
       <c r="B31" s="1">
         <v>38</v>
@@ -1801,8 +1882,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>17</v>
+      <c r="A34" s="6">
+        <v>44966</v>
       </c>
       <c r="B34" s="1">
         <v>40</v>
@@ -1834,33 +1915,33 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
-        <v>44222</v>
+      <c r="A37" s="6">
+        <v>45006</v>
       </c>
       <c r="B37" s="1">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>44245</v>
+      <c r="A38" s="6">
+        <v>45014</v>
       </c>
       <c r="B38" s="1">
-        <v>42</v>
+        <v>41.7</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>44276</v>
+        <v>44222</v>
       </c>
       <c r="B39" s="1">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1868,10 +1949,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>44309</v>
+        <v>44245</v>
       </c>
       <c r="B40" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1879,10 +1960,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>44341</v>
+        <v>44276</v>
       </c>
       <c r="B41" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -1890,7 +1971,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>44369</v>
+        <v>44309</v>
       </c>
       <c r="B42" s="1">
         <v>43</v>
@@ -1901,10 +1982,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>44400</v>
+        <v>44341</v>
       </c>
       <c r="B43" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -1912,43 +1993,43 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
+        <v>44369</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>44400</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>44426</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B46" s="1">
         <v>46</v>
       </c>
-      <c r="C44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="9">
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="9">
         <v>44462</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B47" s="1">
         <v>47.7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="9">
-        <v>44495</v>
-      </c>
-      <c r="B46" s="1">
-        <v>52.5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
-        <v>44518</v>
-      </c>
-      <c r="B47" s="1">
-        <v>53</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1956,43 +2037,43 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
+        <v>44495</v>
+      </c>
+      <c r="B48" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>44518</v>
+      </c>
+      <c r="B49" s="1">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="9">
         <v>44549</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B50" s="1">
         <v>55.3</v>
       </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="9">
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="9">
         <v>44584</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B51" s="1">
         <v>53.2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
-        <v>44615</v>
-      </c>
-      <c r="B50" s="1">
-        <v>53.2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
-        <v>44650</v>
-      </c>
-      <c r="B51" s="1">
-        <v>53.8</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -2000,10 +2081,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
-        <v>44676</v>
+        <v>44615</v>
       </c>
       <c r="B52" s="1">
-        <v>51.8</v>
+        <v>53.2</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -2011,10 +2092,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
-        <v>44704</v>
+        <v>44650</v>
       </c>
       <c r="B53" s="1">
-        <v>54.7</v>
+        <v>53.8</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -2022,10 +2103,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
-        <v>44741</v>
+        <v>44676</v>
       </c>
       <c r="B54" s="1">
-        <v>56</v>
+        <v>51.8</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -2033,10 +2114,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
-        <v>44770</v>
+        <v>44704</v>
       </c>
       <c r="B55" s="1">
-        <v>57</v>
+        <v>54.7</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -2044,32 +2125,32 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
+        <v>44741</v>
+      </c>
+      <c r="B56" s="1">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>44770</v>
+      </c>
+      <c r="B57" s="1">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
         <v>44798</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B58" s="1">
         <v>54.6</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="9">
-        <v>44829</v>
-      </c>
-      <c r="B57" s="1">
-        <v>54.5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="9">
-        <v>44841</v>
-      </c>
-      <c r="B58" s="1">
-        <v>52</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -2077,10 +2158,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
-        <v>44846</v>
+        <v>44829</v>
       </c>
       <c r="B59" s="1">
-        <v>51</v>
+        <v>54.5</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -2088,10 +2169,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
-        <v>44851</v>
+        <v>44841</v>
       </c>
       <c r="B60" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -2099,7 +2180,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
-        <v>44872</v>
+        <v>44846</v>
       </c>
       <c r="B61" s="1">
         <v>51</v>
@@ -2110,10 +2191,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
-        <v>44881</v>
+        <v>44851</v>
       </c>
       <c r="B62" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -2121,10 +2202,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
-        <v>44885</v>
+        <v>44872</v>
       </c>
       <c r="B63" s="1">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -2132,10 +2213,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
-        <v>44904</v>
+        <v>44881</v>
       </c>
       <c r="B64" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -2143,7 +2224,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
-        <v>44909</v>
+        <v>44885</v>
       </c>
       <c r="B65" s="1">
         <v>55</v>
@@ -2153,11 +2234,11 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="10" t="s">
-        <v>18</v>
+      <c r="A66" s="9">
+        <v>44904</v>
       </c>
       <c r="B66" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -2165,10 +2246,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
-        <v>44952</v>
+        <v>44909</v>
       </c>
       <c r="B67" s="1">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
@@ -2176,32 +2257,32 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
+        <v>44937</v>
+      </c>
+      <c r="B68" s="1">
+        <v>53</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
+        <v>44952</v>
+      </c>
+      <c r="B69" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
         <v>44956</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B70" s="1">
         <v>51.5</v>
-      </c>
-      <c r="C68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="1">
-        <v>55</v>
-      </c>
-      <c r="C69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
-        <v>44970</v>
-      </c>
-      <c r="B70" s="1">
-        <v>45</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -2209,12 +2290,56 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
+        <v>44966</v>
+      </c>
+      <c r="B71" s="1">
+        <v>55</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
+        <v>44970</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
         <v>44978</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B73" s="1">
         <v>56</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="9">
+        <v>45006</v>
+      </c>
+      <c r="B74" s="1">
+        <v>52</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="9">
+        <v>45014</v>
+      </c>
+      <c r="B75" s="1">
+        <v>56.3</v>
+      </c>
+      <c r="C75" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2225,10 +2350,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD06F601-20B1-9C47-AE8D-2FB0DE090AFB}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:B60"/>
+    <sheetView topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2988,6 +3113,90 @@
         <v>6</v>
       </c>
     </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>44994</v>
+      </c>
+      <c r="B62" s="2">
+        <v>32</v>
+      </c>
+      <c r="C62" s="2">
+        <v>55</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>45005</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44</v>
+      </c>
+      <c r="C63" s="2">
+        <v>42</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>45006</v>
+      </c>
+      <c r="B64" s="2">
+        <v>37</v>
+      </c>
+      <c r="C64" s="2">
+        <v>49</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>45009</v>
+      </c>
+      <c r="B65" s="2">
+        <v>48</v>
+      </c>
+      <c r="C65" s="2">
+        <v>51</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>45012</v>
+      </c>
+      <c r="B66" s="2">
+        <v>27</v>
+      </c>
+      <c r="C66" s="2">
+        <v>60</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>45014</v>
+      </c>
+      <c r="B67" s="2">
+        <v>43</v>
+      </c>
+      <c r="C67" s="2">
+        <v>52.7</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2995,10 +3204,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099A9BFF-E3A6-4844-BB76-EED16C412818}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3349,8 +3558,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>18</v>
+      <c r="A32" s="9">
+        <v>44937</v>
       </c>
       <c r="B32" s="2">
         <v>34</v>
@@ -3382,8 +3591,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>17</v>
+      <c r="A35" s="6">
+        <v>44966</v>
       </c>
       <c r="B35" s="2">
         <v>38</v>
@@ -3415,33 +3624,33 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
-        <v>44223</v>
+      <c r="A38" s="6">
+        <v>45006</v>
       </c>
       <c r="B38" s="2">
-        <v>23</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
-        <v>44245</v>
+      <c r="A39" s="6">
+        <v>45014</v>
       </c>
       <c r="B39" s="2">
-        <v>32</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>44276</v>
+        <v>44223</v>
       </c>
       <c r="B40" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -3449,10 +3658,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>44298</v>
+        <v>44245</v>
       </c>
       <c r="B41" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -3460,10 +3669,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>44341</v>
+        <v>44276</v>
       </c>
       <c r="B42" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -3471,10 +3680,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>44363</v>
+        <v>44298</v>
       </c>
       <c r="B43" s="2">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -3482,10 +3691,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
-        <v>44406</v>
+        <v>44341</v>
       </c>
       <c r="B44" s="2">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -3493,10 +3702,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>44418</v>
+        <v>44363</v>
       </c>
       <c r="B45" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -3504,10 +3713,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <v>44455</v>
+        <v>44406</v>
       </c>
       <c r="B46" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -3515,10 +3724,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>44479</v>
+        <v>44418</v>
       </c>
       <c r="B47" s="2">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -3526,10 +3735,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>44518</v>
+        <v>44455</v>
       </c>
       <c r="B48" s="2">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -3537,7 +3746,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>44538</v>
+        <v>44479</v>
       </c>
       <c r="B49" s="2">
         <v>49</v>
@@ -3548,10 +3757,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
-        <v>44588</v>
+        <v>44518</v>
       </c>
       <c r="B50" s="2">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -3559,10 +3768,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>44614</v>
+        <v>44538</v>
       </c>
       <c r="B51" s="2">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -3570,32 +3779,32 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
+        <v>44588</v>
+      </c>
+      <c r="B52" s="2">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>44614</v>
+      </c>
+      <c r="B53" s="2">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
         <v>44650</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B54" s="2">
         <v>54</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
-        <v>44676</v>
-      </c>
-      <c r="B53" s="2">
-        <v>53.5</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
-        <v>44697</v>
-      </c>
-      <c r="B54" s="2">
-        <v>58</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -3603,10 +3812,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
-        <v>44741</v>
+        <v>44676</v>
       </c>
       <c r="B55" s="2">
-        <v>55</v>
+        <v>53.5</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -3614,10 +3823,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="6">
-        <v>44770</v>
+        <v>44697</v>
       </c>
       <c r="B56" s="2">
-        <v>58.4</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -3625,10 +3834,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="6">
-        <v>44798</v>
+        <v>44741</v>
       </c>
       <c r="B57" s="2">
-        <v>53.6</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -3636,10 +3845,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
-        <v>44829</v>
+        <v>44770</v>
       </c>
       <c r="B58" s="2">
-        <v>52.5</v>
+        <v>58.4</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -3647,10 +3856,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="6">
-        <v>44841</v>
-      </c>
-      <c r="B59" s="8">
-        <v>48.5</v>
+        <v>44798</v>
+      </c>
+      <c r="B59" s="2">
+        <v>53.6</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -3658,10 +3867,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="6">
-        <v>44846</v>
-      </c>
-      <c r="B60" s="8">
-        <v>46.5</v>
+        <v>44829</v>
+      </c>
+      <c r="B60" s="2">
+        <v>52.5</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -3669,10 +3878,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="6">
-        <v>44851</v>
+        <v>44841</v>
       </c>
       <c r="B61" s="8">
-        <v>45.5</v>
+        <v>48.5</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -3680,10 +3889,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
-        <v>44860</v>
+        <v>44846</v>
       </c>
       <c r="B62" s="8">
-        <v>38</v>
+        <v>46.5</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -3691,10 +3900,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="6">
-        <v>44872</v>
+        <v>44851</v>
       </c>
       <c r="B63" s="8">
-        <v>35.5</v>
+        <v>45.5</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -3702,10 +3911,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="6">
-        <v>44881</v>
+        <v>44860</v>
       </c>
       <c r="B64" s="8">
-        <v>43.5</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -3713,43 +3922,43 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="6">
+        <v>44872</v>
+      </c>
+      <c r="B65" s="8">
+        <v>35.5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>44881</v>
+      </c>
+      <c r="B66" s="8">
+        <v>43.5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
         <v>44885</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B67" s="8">
         <v>46</v>
       </c>
-      <c r="C65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="9">
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="9">
         <v>44904</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B68" s="8">
         <v>42.3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="9">
-        <v>44909</v>
-      </c>
-      <c r="B67" s="8">
-        <v>44.5</v>
-      </c>
-      <c r="C67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" s="8">
-        <v>52</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -3757,10 +3966,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
-        <v>44952</v>
+        <v>44909</v>
       </c>
       <c r="B69" s="8">
-        <v>48.5</v>
+        <v>44.5</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -3768,32 +3977,32 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
+        <v>44937</v>
+      </c>
+      <c r="B70" s="8">
+        <v>52</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="9">
+        <v>44952</v>
+      </c>
+      <c r="B71" s="8">
+        <v>48.5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="9">
         <v>44956</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B72" s="8">
         <v>40.5</v>
-      </c>
-      <c r="C70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71" s="8">
-        <v>56</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
-        <v>44970</v>
-      </c>
-      <c r="B72" s="8">
-        <v>47</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -3801,12 +4010,56 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
+        <v>44966</v>
+      </c>
+      <c r="B73" s="8">
+        <v>56</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>44970</v>
+      </c>
+      <c r="B74" s="8">
+        <v>47</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
         <v>44978</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B75" s="8">
         <v>52</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>45006</v>
+      </c>
+      <c r="B76" s="8">
+        <v>48.7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>45014</v>
+      </c>
+      <c r="B77" s="8">
+        <v>54.6</v>
+      </c>
+      <c r="C77" t="s">
         <v>2</v>
       </c>
     </row>
